--- a/doc/super-duper-nes-hardware-design.xlsx
+++ b/doc/super-duper-nes-hardware-design.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\999.my-proj\001.nes-fpga\repo\super-duper-nes\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Connection" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -241,12 +236,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -254,17 +249,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -294,11 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -306,9 +316,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1044,7 +1064,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1088,7 +1108,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1108,7 +1128,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1143,7 +1163,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1163,7 +1183,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1431,7 +1451,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1451,7 +1471,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1486,7 +1506,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1506,7 +1526,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1674,7 +1694,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1709,7 +1729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1886,23 +1906,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="AB11:BH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BS23" sqref="BS23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="11" spans="28:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="28:60">
       <c r="AL11" t="s">
         <v>66</v>
       </c>
@@ -1913,297 +1933,299 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="28:60" x14ac:dyDescent="0.25">
+    <row r="13" spans="28:60">
       <c r="AX13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="28:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="28:60">
       <c r="AB15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="33:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="33:33">
       <c r="AG24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="33:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="33:33">
       <c r="AG25" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2211,18 +2233,20 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/super-duper-nes-hardware-design.xlsx
+++ b/doc/super-duper-nes-hardware-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Connection" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
   <si>
     <t>カートリッジコネクタピンアサイン</t>
   </si>
@@ -309,6 +309,30 @@
   </si>
   <si>
     <t>nes side</t>
+  </si>
+  <si>
+    <t>おおよそ上半分がCPUからのアドレスバスとデータバス</t>
+  </si>
+  <si>
+    <t>IRQやオーディオなどを挟んで下半分がPPUのアドレスバスとデータバス</t>
+  </si>
+  <si>
+    <t>φ2(M2とも)はシステムクロック</t>
+  </si>
+  <si>
+    <t>SOUND INはAPU(2A03)からのサウンド出力。</t>
+  </si>
+  <si>
+    <t>SOUND OUTはカセット側に拡張音源が乗っていればSOUND INとミックスして出力。</t>
+  </si>
+  <si>
+    <t>特になければそのままOUTに直結する。</t>
+  </si>
+  <si>
+    <t>ピッチは2.54mm</t>
+  </si>
+  <si>
+    <t>基板厚は1.2mm</t>
   </si>
 </sst>
 </file>
@@ -426,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -439,9 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -467,6 +488,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1206,7 +1231,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1250,7 +1275,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1270,7 +1295,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1305,7 +1330,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1325,7 +1350,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1593,7 +1618,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1613,7 +1638,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1648,7 +1673,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1668,7 +1693,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1795,6 +1820,51 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>170970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="fc%e3%82%ab%e3%83%bc%e3%83%88%e3%83%aa%e3%83%83%e3%82%b8%e3%82%b3%e3%83%8d%e3%82%af%e3%82%bf"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6486525" y="0"/>
+          <a:ext cx="3152775" cy="5771670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1952,7 +2022,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5472,7 +5542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5529,10 +5599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C33"/>
+  <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5541,77 +5611,101 @@
     <col min="3" max="3" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="2:3" ht="14.25" thickBot="1">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.25" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="14.25" thickBot="1">
+      <c r="L3" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="14.25" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="14.25" thickBot="1">
+      <c r="L4" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="14.25" thickBot="1">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="14.25" thickBot="1">
+      <c r="L5" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="14.25" thickBot="1">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="14.25" thickBot="1">
+      <c r="L6" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="14.25" thickBot="1">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="14.25" thickBot="1">
+      <c r="L7" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.25" thickBot="1">
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="14.25" thickBot="1">
+      <c r="L8" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="14.25" thickBot="1">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="14.25" thickBot="1">
+      <c r="L9" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="14.25" thickBot="1">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="14.25" thickBot="1">
+      <c r="L10" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="14.25" thickBot="1">
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
@@ -5619,7 +5713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="14.25" thickBot="1">
+    <row r="12" spans="2:12" ht="14.25" thickBot="1">
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
@@ -5627,7 +5721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="14.25" thickBot="1">
+    <row r="13" spans="2:12" ht="14.25" thickBot="1">
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
@@ -5635,7 +5729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="14.25" thickBot="1">
+    <row r="14" spans="2:12" ht="14.25" thickBot="1">
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
@@ -5643,7 +5737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="14.25" thickBot="1">
+    <row r="15" spans="2:12" ht="14.25" thickBot="1">
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
@@ -5651,7 +5745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="14.25" thickBot="1">
+    <row r="16" spans="2:12" ht="14.25" thickBot="1">
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -5801,6 +5895,8 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5814,307 +5910,307 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="7" width="3" style="7"/>
-    <col min="8" max="8" width="3.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="3" style="7"/>
-    <col min="16" max="16" width="3.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="3" style="7"/>
+    <col min="1" max="7" width="3" style="6"/>
+    <col min="8" max="8" width="3.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="3" style="6"/>
+    <col min="16" max="16" width="3.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="3" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:18">
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="5:18">
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="5:18">
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="5:18">
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>5</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="5:18">
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>7</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="5:18">
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>9</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="5:18">
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>11</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="6">
         <v>12</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="8:16">
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>13</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="8:16">
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>15</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="8:16">
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>17</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="8:16">
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>19</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="8:16">
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>21</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="8:16">
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>23</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="8:16">
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>25</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="8:16">
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>27</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="6">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="5:18">
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>29</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="6">
         <v>30</v>
       </c>
-      <c r="R34" s="7" t="s">
+      <c r="R34" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="5:18">
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>31</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="6">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="5:18">
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>33</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="6">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="5:18">
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>35</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="6">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="5:18">
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <v>37</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="5:18">
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <v>39</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="6">
         <v>40</v>
       </c>
     </row>
@@ -6130,743 +6226,743 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="18.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="14.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="16.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9" style="7"/>
-    <col min="8" max="8" width="17.375" style="7" customWidth="1"/>
-    <col min="9" max="16" width="9" style="7"/>
-    <col min="17" max="17" width="16.125" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="18.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="14.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="16.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="17.375" style="6" customWidth="1"/>
+    <col min="9" max="16" width="9" style="6"/>
+    <col min="17" max="17" width="16.125" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>-0.3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>-0.3</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>0.4</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>2.4</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>1.7</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>5</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>0.8</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>1.7</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>0.4</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>2.4</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>3.1</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="J16" s="7" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>5</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>4.8</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>4.8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>4.2</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>4.2</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>4</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>3.8</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>3.8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>3.6</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>3.6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>3.4</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>3.4</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>3.2</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>3</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>3</v>
       </c>
-      <c r="Q28" s="10" t="s">
+      <c r="Q28" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>2.8</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>2.8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>2.6</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>2.6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>2.4</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>2.4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>2</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>1.8</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <v>1.8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>1.6</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <v>1.6</v>
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>1.4</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>1.4</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>1.2</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <v>1.2</v>
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>1</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>0.8</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>0.6</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>0.4</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>0.2</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <v>0.2</v>
       </c>
-      <c r="Q42" s="10"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>0</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="8">
         <v>0</v>
       </c>
-      <c r="Q43" s="10" t="s">
+      <c r="Q43" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>-0.2</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="8">
         <v>-0.2</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>-0.4</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="8">
         <v>-0.4</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>5</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>4.8</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="8">
         <v>4.8</v>
       </c>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>4.2</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="8">
         <v>4.2</v>
       </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>4</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="9">
+      <c r="A54" s="8">
         <v>3.8</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="8">
         <v>3.8</v>
       </c>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="9">
+      <c r="A55" s="8">
         <v>3.6</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="8">
         <v>3.6</v>
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="9">
+      <c r="A56" s="8">
         <v>3.4</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="8">
         <v>3.4</v>
       </c>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="9">
+      <c r="A57" s="8">
         <v>3.2</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="9">
+      <c r="A58" s="8">
         <v>3</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="9">
+      <c r="A59" s="8">
         <v>2.8</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="8">
         <v>2.8</v>
       </c>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="9">
+      <c r="A60" s="8">
         <v>2.6</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="8">
         <v>2.6</v>
       </c>
-      <c r="Q60" s="10" t="s">
+      <c r="Q60" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>2.4</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="8">
         <v>2.4</v>
       </c>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="9">
+      <c r="A62" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="8">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="9">
+      <c r="A63" s="8">
         <v>2</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="9">
+      <c r="A64" s="8">
         <v>1.8</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="8">
         <v>1.8</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="9">
+      <c r="A65" s="8">
         <v>1.6</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="8">
         <v>1.6</v>
       </c>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="9">
+      <c r="A66" s="8">
         <v>1.4</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="8">
         <v>1.4</v>
       </c>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="9">
+      <c r="A67" s="8">
         <v>1.2</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="8">
         <v>1.2</v>
       </c>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="9">
+      <c r="A68" s="8">
         <v>1</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="9">
+      <c r="A69" s="8">
         <v>0.8</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="8">
         <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="9">
+      <c r="A70" s="8">
         <v>0.6</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="8">
         <v>0.6</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="9">
+      <c r="A71" s="8">
         <v>0.4</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="8">
         <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="9">
+      <c r="A72" s="8">
         <v>0.2</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="8">
         <v>0.2</v>
       </c>
-      <c r="Q72" s="10" t="s">
+      <c r="Q72" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="9">
+      <c r="A73" s="8">
         <v>0</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="H73" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="9">
+      <c r="A74" s="8">
         <v>-0.2</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="8">
         <v>-0.2</v>
       </c>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="9">
+      <c r="A75" s="8">
         <v>-0.4</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="8">
         <v>-0.4</v>
       </c>
     </row>
     <row r="146" spans="16:16">
-      <c r="P146" s="7" t="s">
+      <c r="P146" s="6" t="s">
         <v>75</v>
       </c>
     </row>

--- a/doc/super-duper-nes-hardware-design.xlsx
+++ b/doc/super-duper-nes-hardware-design.xlsx
@@ -198,9 +198,6 @@
     <t>28:CHR-D2</t>
   </si>
   <si>
-    <t>58:CHR-A6</t>
-  </si>
-  <si>
     <t>29:CHR-D3</t>
   </si>
   <si>
@@ -333,6 +330,10 @@
   </si>
   <si>
     <t>基板厚は1.2mm</t>
+  </si>
+  <si>
+    <t>58:CHR-D6</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1231,7 +1232,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1275,7 +1276,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1295,7 +1296,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1330,7 +1331,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1350,7 +1351,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1618,7 +1619,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1638,7 +1639,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1673,7 +1674,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1693,7 +1694,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5542,7 +5543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5560,33 +5561,33 @@
   <sheetData>
     <row r="11" spans="28:60">
       <c r="AL11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>66</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>67</v>
-      </c>
       <c r="BH11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="28:60">
       <c r="AX13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="28:60">
       <c r="AB15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="33:33">
       <c r="AG24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="33:33">
       <c r="AG25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5602,7 +5603,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5625,7 +5626,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="14.25" thickBot="1">
@@ -5636,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.25" thickBot="1">
@@ -5647,7 +5648,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="14.25" thickBot="1">
@@ -5658,7 +5659,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="14.25" thickBot="1">
@@ -5669,7 +5670,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.25" thickBot="1">
@@ -5680,7 +5681,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.25" thickBot="1">
@@ -5691,7 +5692,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="14.25" thickBot="1">
@@ -5702,7 +5703,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="14.25" thickBot="1">
@@ -5870,23 +5871,23 @@
         <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="14.25" thickBot="1">
       <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="14.25" thickBot="1">
       <c r="B33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5919,7 +5920,7 @@
   <sheetData>
     <row r="3" spans="5:18">
       <c r="J3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="5:18">
@@ -5927,10 +5928,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P6" s="6">
         <v>2</v>
@@ -5941,10 +5942,10 @@
         <v>3</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P8" s="6">
         <v>4</v>
@@ -5955,10 +5956,10 @@
         <v>5</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="6">
         <v>6</v>
@@ -5969,10 +5970,10 @@
         <v>7</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P12" s="6">
         <v>8</v>
@@ -5983,10 +5984,10 @@
         <v>9</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P14" s="6">
         <v>10</v>
@@ -5994,22 +5995,22 @@
     </row>
     <row r="16" spans="5:18">
       <c r="E16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="6">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P16" s="6">
         <v>12</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="8:16">
@@ -6017,10 +6018,10 @@
         <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P18" s="6">
         <v>14</v>
@@ -6031,10 +6032,10 @@
         <v>15</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P20" s="6">
         <v>16</v>
@@ -6045,10 +6046,10 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P22" s="6">
         <v>18</v>
@@ -6059,10 +6060,10 @@
         <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="6">
         <v>20</v>
@@ -6073,10 +6074,10 @@
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P26" s="6">
         <v>22</v>
@@ -6087,10 +6088,10 @@
         <v>23</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P28" s="6">
         <v>24</v>
@@ -6101,10 +6102,10 @@
         <v>25</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P30" s="6">
         <v>26</v>
@@ -6115,10 +6116,10 @@
         <v>27</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P32" s="6">
         <v>28</v>
@@ -6126,22 +6127,22 @@
     </row>
     <row r="34" spans="5:18">
       <c r="E34" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H34" s="6">
         <v>29</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P34" s="6">
         <v>30</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="5:18">
@@ -6149,10 +6150,10 @@
         <v>31</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P36" s="6">
         <v>32</v>
@@ -6163,10 +6164,10 @@
         <v>33</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P38" s="6">
         <v>34</v>
@@ -6177,10 +6178,10 @@
         <v>35</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P40" s="6">
         <v>36</v>
@@ -6191,10 +6192,10 @@
         <v>37</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P42" s="6">
         <v>38</v>
@@ -6205,10 +6206,10 @@
         <v>39</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P44" s="6">
         <v>40</v>
@@ -6248,32 +6249,32 @@
   <sheetData>
     <row r="3" spans="2:10">
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="15">
         <v>-0.3</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="15">
         <v>-0.3</v>
@@ -6282,14 +6283,14 @@
     <row r="6" spans="2:10">
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="16">
         <v>0.4</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="15">
         <v>0.8</v>
@@ -6297,19 +6298,19 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="16">
         <v>2.4</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="15">
         <v>1.7</v>
@@ -6318,14 +6319,14 @@
     <row r="8" spans="2:10">
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="16">
         <v>5</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="15">
         <v>3.6</v>
@@ -6333,19 +6334,19 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="16">
         <v>0.8</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="15">
         <v>0.8</v>
@@ -6354,14 +6355,14 @@
     <row r="10" spans="2:10">
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="16">
         <v>2</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="15">
         <v>1.7</v>
@@ -6369,35 +6370,35 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="15">
         <v>0.4</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" s="14">
         <v>0.2</v>
@@ -6405,19 +6406,19 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="15">
         <v>2.4</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="14">
         <v>3.1</v>
@@ -6426,17 +6427,17 @@
     <row r="14" spans="2:10">
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -6449,7 +6450,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12"/>
@@ -6457,15 +6458,15 @@
       <c r="G16" s="13"/>
       <c r="H16" s="12"/>
       <c r="J16" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -6521,7 +6522,7 @@
         <v>3.8</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="8">
         <v>3.8</v>
@@ -6559,7 +6560,7 @@
         <v>3</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -6599,7 +6600,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33" s="8">
         <v>2</v>
@@ -6658,7 +6659,7 @@
         <v>0.6</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I40" s="8">
         <v>0.6</v>
@@ -6686,13 +6687,13 @@
         <v>0</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I43" s="8">
         <v>0</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -6713,10 +6714,10 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -6780,7 +6781,7 @@
         <v>3.6</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I55" s="8">
         <v>3.6</v>
@@ -6826,7 +6827,7 @@
         <v>2.6</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -6861,7 +6862,7 @@
         <v>1.8</v>
       </c>
       <c r="P64" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -6912,7 +6913,7 @@
         <v>0.6</v>
       </c>
       <c r="P70" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -6931,7 +6932,7 @@
         <v>0.2</v>
       </c>
       <c r="Q72" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -6939,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I73" s="8">
         <v>0</v>
@@ -6963,7 +6964,7 @@
     </row>
     <row r="146" spans="16:16">
       <c r="P146" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
